--- a/Documents/Thời_gian_dự_trữ.xlsx
+++ b/Documents/Thời_gian_dự_trữ.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,7 @@
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,9 @@
       <c r="E7" s="2">
         <v>31</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -621,107 +623,209 @@
       <c r="E8" s="2">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="2">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="2">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="2">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
